--- a/Уроки с Лизой.xlsx
+++ b/Уроки с Лизой.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей Коротких\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RenGames\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB944C6B-23D2-43A1-9101-E4041E5FF449}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D912362-EC55-448A-A47E-66DF901D6621}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{F61F45A9-2922-4915-A463-412F3F98773C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{F61F45A9-2922-4915-A463-412F3F98773C}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Если ранее Лизу не наказали за завтраком (день 2)</t>
   </si>
   <si>
-    <t>Делаем ошибки, Лизу наказывают (1 раз)</t>
-  </si>
-  <si>
     <t>Хочешь помощь за услуги?</t>
   </si>
   <si>
@@ -70,6 +67,9 @@
   </si>
   <si>
     <t>Лиза просит помощи и спит без штанов</t>
+  </si>
+  <si>
+    <t>Ждем, когда Лиза сделает ошибку и ее накажут (1 раз)</t>
   </si>
 </sst>
 </file>
@@ -382,68 +382,11 @@
   </cellStyleXfs>
   <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
@@ -454,6 +397,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -771,155 +771,161 @@
   <dimension ref="B1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.77734375" customWidth="1"/>
-    <col min="4" max="4" width="30.77734375" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" customWidth="1"/>
-    <col min="8" max="8" width="30.77734375" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="7" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C3" s="22"/>
-      <c r="G3" s="24"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="3"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="1" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+      <c r="F4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="4"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="6"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="22"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="22"/>
-    </row>
-    <row r="7" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="7" t="s">
+      <c r="G4" s="26"/>
+      <c r="H4" s="27"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="28"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="3"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="F7" s="10" t="s">
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="F7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C8" s="23"/>
-      <c r="D8" s="22"/>
-      <c r="F8" s="13"/>
-      <c r="H8" s="13"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="10" t="s">
+    <row r="8" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="F9" s="5"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="F10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="6"/>
+      <c r="F11" s="16"/>
+      <c r="H11" s="8"/>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="5"/>
+      <c r="C12" s="7"/>
+      <c r="F12" s="5"/>
+      <c r="H12" s="8"/>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="24"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="11"/>
-      <c r="D10" s="13"/>
-      <c r="F10" s="10" t="s">
+      <c r="D13" s="8"/>
+      <c r="F13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="12"/>
-      <c r="C11" s="25"/>
-      <c r="F11" s="13"/>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="24"/>
-      <c r="C12" s="26"/>
-      <c r="F12" s="24"/>
-      <c r="H12" s="27"/>
-    </row>
-    <row r="13" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="15" t="s">
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="7"/>
+      <c r="D14" s="9"/>
+      <c r="G14" s="11"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="F13" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="H13" s="27"/>
-    </row>
-    <row r="14" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="26"/>
-      <c r="D14" s="28"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="10" t="s">
+      <c r="F15" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="20"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+    </row>
+    <row r="17" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="9"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="B4:D5"/>
+    <mergeCell ref="F4:H5"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="B17:H17"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="D9:D10"/>
@@ -927,12 +933,6 @@
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="D15:D16"/>
     <mergeCell ref="F15:H16"/>
-    <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B4:D5"/>
-    <mergeCell ref="F4:H5"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
